--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56005.24836526132</v>
+        <v>11145044.42468698</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56005.24836526132</v>
+        <v>11145044.42468698</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2831.096556351657</v>
+        <v>433763.7525595984</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2831.096556351657</v>
+        <v>433763.7525595984</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265941351.359172</v>
+        <v>51933166.89991616</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10684.57963373402</v>
+        <v>1184675.222292088</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20429.35979766728</v>
+        <v>2223091.896507686</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30174.13996160052</v>
+        <v>3261508.570723286</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40142.77033672533</v>
+        <v>4311290.287370362</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50056.91667144552</v>
+        <v>5350229.679977115</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59971.06300616561</v>
+        <v>6389169.072583852</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69885.20934088546</v>
+        <v>7428108.465190641</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79799.3556756053</v>
+        <v>8467047.857797427</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89908.96069669066</v>
+        <v>9487797.255474398</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99851.90013999639</v>
+        <v>10526783.31374878</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109794.8395833019</v>
+        <v>11565769.37202318</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119514.3559963045</v>
+        <v>12593913.10625717</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129288.356449711</v>
+        <v>13632899.16453157</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139383.991546789</v>
+        <v>14623248.39412534</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149639.3168724295</v>
+        <v>15589798.48687801</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>376</v>
@@ -27055,10 +27055,10 @@
         <v>4.229205884737894e-11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>349.999999999872</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
